--- a/biology/Botanique/Betula_nana/Betula_nana.xlsx
+++ b/biology/Botanique/Betula_nana/Betula_nana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Betula nana
 Le Bouleau nain (Betula nana) est une espèce d'arbustes de la famille des Betulaceae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bouleau nain est présent dans de nombreuses régions arctiques : Scandinavie, stations abritées du Spitzberg, Groenland, nord du Canada, Alaska, Sibérie. Plus au sud, on le retrouve ponctuellement dans des zones montagneuses froides : Écosse (altitude &gt; 800 m), Europe centrale, Alpes orientales (altitude &gt; 2 200 m). En France, il est présent dans certaines tourbières du Jura (région de Mouthe) et de Margeride mais reste toutefois très rare.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce croît dans les tourbières bombées principalement.
 </t>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des arbustes qui atteignent au maximum un mètre de hauteur. Leurs feuilles, de 6 à 20 mm de diamètre, sont arrondies, dentées, souvent plus larges que longues, devenant orange en automne. La tige est très rameuse, souvent rampante. Les jeunes rameaux sont dressés.
 C'est une espèce monoïque avec des chatons mâles et des fleurs femelles dressées. Elle fleurit d'avril à mai, selon les régions.
@@ -606,9 +624,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Durant la dernière glaciation, le bouleau nain fut le végétal ligneux qui vécut le plus près de la glace. Actuellement devenue rare en Europe centrale, c'est une espèce relique de l'ère glaciaire[réf. souhaitée]. Elle est protégée en France[1] (Article 1).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant la dernière glaciation, le bouleau nain fut le végétal ligneux qui vécut le plus près de la glace. Actuellement devenue rare en Europe centrale, c'est une espèce relique de l'ère glaciaire[réf. souhaitée]. Elle est protégée en France (Article 1).
 </t>
         </is>
       </c>
